--- a/data/data_siswa_template.xlsx
+++ b/data/data_siswa_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mriza\Desktop\binar-ilmu\dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mriza\Desktop\Binar\New Binar Ilmu\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF3ADD8-8A48-4737-BC36-EC19C15B0376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840995F1-5F57-44FD-AA0F-3E06B8C940F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>NISN</t>
   </si>
@@ -37,103 +37,109 @@
     <t>NIK</t>
   </si>
   <si>
+    <t>Agama</t>
+  </si>
+  <si>
+    <t>Anak ke</t>
+  </si>
+  <si>
+    <t>Koordinat Lintang</t>
+  </si>
+  <si>
+    <t>Nomor Telepon/ hp siswa</t>
+  </si>
+  <si>
+    <t>Sekolah Asal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tinggi Badan </t>
+  </si>
+  <si>
+    <t>Berat Badan</t>
+  </si>
+  <si>
+    <t>NIK Ayah</t>
+  </si>
+  <si>
+    <t>Nama Ibu</t>
+  </si>
+  <si>
+    <t>NIK Ibu</t>
+  </si>
+  <si>
+    <t>Status dalam Keluarga</t>
+  </si>
+  <si>
+    <t>Alamat Siswa</t>
+  </si>
+  <si>
+    <t>Koordinat Bujur</t>
+  </si>
+  <si>
+    <t>Nama Ayah</t>
+  </si>
+  <si>
+    <t>Agama Ayah</t>
+  </si>
+  <si>
+    <t>Alamat Ayah</t>
+  </si>
+  <si>
+    <t>Nomor Telepon/ HP Ayah</t>
+  </si>
+  <si>
+    <t>Pekerjaan Ayah</t>
+  </si>
+  <si>
+    <t>Instansi Tempat Bekerja</t>
+  </si>
+  <si>
+    <t>Pendidikan Terakhir ayah</t>
+  </si>
+  <si>
+    <t>Agama Ibu</t>
+  </si>
+  <si>
+    <t>Alamat Ibu</t>
+  </si>
+  <si>
+    <t>No Tlp/ HP Ibu</t>
+  </si>
+  <si>
+    <t>Pekerjaan Ibu</t>
+  </si>
+  <si>
+    <t>Instansi Tempat Bekerja Ibu</t>
+  </si>
+  <si>
+    <t>Pendidikan Terakhir Ibu</t>
+  </si>
+  <si>
+    <t>Jarak Rumah - Sekolah BI</t>
+  </si>
+  <si>
+    <t>Jarak Rumah - Sekolah TU</t>
+  </si>
+  <si>
+    <t>Tempat Lahir</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir</t>
+  </si>
+  <si>
+    <t>Tempat Lahir Ayah</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir Ayah</t>
+  </si>
+  <si>
+    <t>Tempat Lahir Ibu</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir Ibu</t>
+  </si>
+  <si>
     <t>Jenis Kelamin</t>
-  </si>
-  <si>
-    <t>Agama</t>
-  </si>
-  <si>
-    <t>Anak ke</t>
-  </si>
-  <si>
-    <t>Koordinat Lintang</t>
-  </si>
-  <si>
-    <t>Nomor Telepon/ hp siswa</t>
-  </si>
-  <si>
-    <t>Sekolah Asal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tinggi Badan </t>
-  </si>
-  <si>
-    <t>Berat Badan</t>
-  </si>
-  <si>
-    <t>NIK Ayah</t>
-  </si>
-  <si>
-    <t>Nama Ibu</t>
-  </si>
-  <si>
-    <t>NIK Ibu</t>
-  </si>
-  <si>
-    <t>Tempat, Tanggal Lahir</t>
-  </si>
-  <si>
-    <t>Status dalam Keluarga</t>
-  </si>
-  <si>
-    <t>Alamat Siswa</t>
-  </si>
-  <si>
-    <t>Koordinat Bujur</t>
-  </si>
-  <si>
-    <t>Nama Ayah</t>
-  </si>
-  <si>
-    <t>Tempat, Tanggal Lahir Ayah</t>
-  </si>
-  <si>
-    <t>Agama Ayah</t>
-  </si>
-  <si>
-    <t>Alamat Ayah</t>
-  </si>
-  <si>
-    <t>Nomor Telepon/ HP Ayah</t>
-  </si>
-  <si>
-    <t>Pekerjaan Ayah</t>
-  </si>
-  <si>
-    <t>Instansi Tempat Bekerja</t>
-  </si>
-  <si>
-    <t>Akumulasi Gaji Ayah dan Ibu</t>
-  </si>
-  <si>
-    <t>Pendidikan Terakhir ayah</t>
-  </si>
-  <si>
-    <t>Tempat, Tanggal Lahir Ibu</t>
-  </si>
-  <si>
-    <t>Agama Ibu</t>
-  </si>
-  <si>
-    <t>Alamat Ibu</t>
-  </si>
-  <si>
-    <t>No Tlp/ HP Ibu</t>
-  </si>
-  <si>
-    <t>Pekerjaan Ibu</t>
-  </si>
-  <si>
-    <t>Instansi Tempat Bekerja Ibu</t>
-  </si>
-  <si>
-    <t>Pendidikan Terakhir Ibu</t>
-  </si>
-  <si>
-    <t>Jarak Rumah - Sekolah BI</t>
-  </si>
-  <si>
-    <t>Jarak Rumah - Sekolah TU</t>
   </si>
 </sst>
 </file>
@@ -500,55 +506,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL1"/>
+  <dimension ref="A1:AN1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -565,103 +570,109 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
